--- a/public/template/import_customer_template.xlsx
+++ b/public/template/import_customer_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\laragon\www\Bizfly-Ecommerce\public\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABC18464-6701-4B82-8BC8-4882211BA7E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FA9C0BE-C96B-450A-922D-0C9499680463}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4950" yWindow="3390" windowWidth="21600" windowHeight="11385" xr2:uid="{725E796D-DF66-4F95-9F82-A33CAB4B33CF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{725E796D-DF66-4F95-9F82-A33CAB4B33CF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -509,7 +509,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/public/template/import_customer_template.xlsx
+++ b/public/template/import_customer_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\laragon\www\Bizfly-Ecommerce\public\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FA9C0BE-C96B-450A-922D-0C9499680463}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DD8083E-6E88-464D-8C31-811C2E264B8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{725E796D-DF66-4F95-9F82-A33CAB4B33CF}"/>
   </bookViews>
@@ -509,7 +509,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/public/template/import_customer_template.xlsx
+++ b/public/template/import_customer_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\laragon\www\Bizfly-Ecommerce\public\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DD8083E-6E88-464D-8C31-811C2E264B8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F7ECBB5-DC34-4639-A817-09525EA8B429}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{725E796D-DF66-4F95-9F82-A33CAB4B33CF}"/>
+    <workbookView xWindow="3420" yWindow="3885" windowWidth="21600" windowHeight="11385" xr2:uid="{725E796D-DF66-4F95-9F82-A33CAB4B33CF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
   <si>
     <t>Tên khách hàng</t>
   </si>
@@ -53,9 +53,6 @@
   </si>
   <si>
     <t>Phân loại</t>
-  </si>
-  <si>
-    <t>MãNV</t>
   </si>
   <si>
     <t>amnnn@gmail.com</t>
@@ -506,10 +503,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F6F5DC4-5C0E-426B-B670-D21D46A0772C}">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -522,7 +519,7 @@
     <col min="8" max="8" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -542,158 +539,140 @@
         <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D2">
         <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2">
-        <v>9414</v>
+        <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D3">
         <v>18</v>
       </c>
       <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
         <v>19</v>
-      </c>
-      <c r="F3" t="s">
-        <v>20</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="H3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I3">
-        <v>9414</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="C4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D4">
         <v>28</v>
       </c>
       <c r="E4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" t="s">
         <v>25</v>
-      </c>
-      <c r="F4" t="s">
-        <v>26</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="H4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I4">
-        <v>1974</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="D5">
         <v>31</v>
       </c>
       <c r="E5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" t="s">
         <v>30</v>
-      </c>
-      <c r="F5" t="s">
-        <v>31</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="H5" t="s">
-        <v>27</v>
-      </c>
-      <c r="I5">
-        <v>1974</v>
+        <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="D6">
         <v>27</v>
       </c>
       <c r="E6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>36</v>
-      </c>
-      <c r="I6">
-        <v>2000</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
